--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10bd0caeed7dcdf8/Desktop/Football SA/Sports-Analytics/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LiU\Semester 2\Period 2\Sport Analytics\Project\Sports-Analytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03E17A78-7A95-4B5E-A0B3-05D8B792F9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD50C686-66FA-466D-84F1-8579C90F4771}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,15 +29,6 @@
     <t>Model</t>
   </si>
   <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t>F1-Score</t>
-  </si>
-  <si>
     <t>xG StatsBomb</t>
   </si>
   <si>
@@ -97,13 +87,29 @@
   </si>
   <si>
     <t>39,54</t>
+  </si>
+  <si>
+    <t>Accuracy (%)</t>
+  </si>
+  <si>
+    <t>Recall (%)</t>
+  </si>
+  <si>
+    <t>F1 Score (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,15 +135,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Százalék" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,16 +456,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECF0087-E2CB-4CD2-9244-CC05D44D5F26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="18.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -465,83 +476,83 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
